--- a/gradesEricGarcia.xlsx
+++ b/gradesEricGarcia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Dropbox\studentRepos (1)\EricGarcia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702DE38-B2C5-4EE2-B8CB-5350118E460D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B021B8B6-1E02-4C3A-8796-F0F084AB1A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1956" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2184" yWindow="7692" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,11 +574,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>95</v>
+      </c>
       <c r="L2" s="2">
         <v>100</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
